--- a/man/completed sheets/2016-01-25/Jonathan Englund 25-01-16.xlsx
+++ b/man/completed sheets/2016-01-25/Jonathan Englund 25-01-16.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,11 +549,11 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
-        <v>Total hours accounted this week: 18:00</v>
+        <v>Total hours accounted this week: 12:00</v>
       </c>
       <c r="I1" s="6">
         <f>SUM(F3:F100)</f>
-        <v>0.74999999999999989</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -607,7 +607,7 @@
         <v>42394</v>
       </c>
       <c r="F3" s="11">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G3" s="11">
         <v>4.1666666666666664E-2</v>
@@ -631,7 +631,7 @@
         <v>42395</v>
       </c>
       <c r="F4" s="11">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="11">
         <v>0.16666666666666666</v>
@@ -655,7 +655,7 @@
         <v>42395</v>
       </c>
       <c r="F5" s="11">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G5" s="11">
         <v>8.3333333333333329E-2</v>
@@ -679,7 +679,7 @@
         <v>42396</v>
       </c>
       <c r="F6" s="11">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="11">
         <v>0.16666666666666666</v>
@@ -703,7 +703,7 @@
         <v>42396</v>
       </c>
       <c r="F7" s="11">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G7" s="11">
         <v>0.16666666666666666</v>
@@ -727,7 +727,7 @@
         <v>42398</v>
       </c>
       <c r="F8" s="11">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="11">
         <v>0.125</v>
